--- a/Det absolutte nulpunkt/Datafiler/temperaturogtryk.xlsx
+++ b/Det absolutte nulpunkt/Datafiler/temperaturogtryk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Documents/GitHub/termo-lab/Det absolutte nulpunkt/Datafiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{CFC8AD70-422A-416C-8BA1-435BE453BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5656DE0-809B-473D-AFD5-AA07D8859726}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{CFC8AD70-422A-416C-8BA1-435BE453BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247CED6A-EE1B-4BAD-A870-6D382830BCED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B7EAA692-5A8A-406B-9F85-352189198674}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>T  [C]</t>
   </si>
   <si>
-    <t>T [kPa]</t>
+    <t>P [kPa]</t>
   </si>
 </sst>
 </file>
@@ -94,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +420,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
